--- a/pandas/dados/campeonato_futebol.xlsx
+++ b/pandas/dados/campeonato_futebol.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Partidas_Jogadas</t>
+          <t>Paridas_jogadas</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -461,17 +461,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gols_Pro</t>
+          <t>Gols_pro</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Gols_Contra</t>
+          <t>Gols_contra</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Saldo_Gols</t>
+          <t>Saldo_gols</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -607,7 +607,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Corinthias</t>
         </is>
       </c>
       <c r="B6" t="n">
